--- a/config/default/forms/app/pregnancy.xlsx
+++ b/config/default/forms/app/pregnancy.xlsx
@@ -14,39 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="766">
   <si>
     <t>form_title</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>Pregnancy registration</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>Pregnancy registration</t>
-  </si>
-  <si>
-    <t>pregnancy</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
   </si>
   <si>
     <t>pages</t>
@@ -55,21 +64,12 @@
     <t>data</t>
   </si>
   <si>
+    <t>label::id</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label::en</t>
-  </si>
-  <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
     <t>label::sw</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t>hint::sw</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
     <t>hint::ne</t>
   </si>
   <si>
@@ -154,24 +157,24 @@
     <t>repeat_count</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>cht::notes</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>begin group</t>
+  </si>
+  <si>
     <t>lmp_methods</t>
   </si>
   <si>
@@ -181,61 +184,184 @@
     <t>Last menstrual period (LMP)</t>
   </si>
   <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>method_approx</t>
+  </si>
+  <si>
+    <t>Current weeks or months pregnant</t>
+  </si>
+  <si>
+    <t>method_edd</t>
+  </si>
+  <si>
+    <t>Expected date of delivery (EDD)</t>
+  </si>
+  <si>
+    <t>method_none</t>
+  </si>
+  <si>
+    <t>No information is known</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
-    <t>method_approx</t>
+    <t>approx_weeks</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>approx_months</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>no_info_pregnancy_reasons</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>visibly_pregnant</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>The woman is visibly pregnant but does not know for how long.</t>
+  </si>
+  <si>
+    <t>test_positive</t>
+  </si>
+  <si>
+    <t>You performed a pregnancy test and it is positive but the woman does not know the age of the pregnancy or LMP.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>missed_periods</t>
+  </si>
+  <si>
+    <t>The woman is not on any family planning methods and has missed her periods.</t>
+  </si>
+  <si>
+    <t>knows_date</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Enter date</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>Contact ID</t>
+  </si>
+  <si>
+    <t>primary_conditions</t>
   </si>
   <si>
     <t>upto_2_months_ago</t>
   </si>
   <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
     <t>Upto 2 Months Ago</t>
   </si>
   <si>
-    <t>Current weeks or months pregnant</t>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>db-object</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
-    <t>method_edd</t>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>parent</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
-    <t>Expected date of delivery (EDD)</t>
-  </si>
-  <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>method_none</t>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t>No information is known</t>
-  </si>
-  <si>
     <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
+    <t>Parent ID</t>
+  </si>
+  <si>
     <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
-    <t>approx_weeks</t>
-  </si>
-  <si>
-    <t>Weeks</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -244,13 +370,16 @@
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t>approx_months</t>
-  </si>
-  <si>
     <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
-    <t>Months</t>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>secondary_conditions</t>
+  </si>
+  <si>
+    <t>previous_difficulties</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
@@ -265,55 +394,61 @@
     <t>Avoid heavy work, rest more</t>
   </si>
   <si>
+    <t>Previous difficulties in childbirth</t>
+  </si>
+  <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
     <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
-    <t>no_info_pregnancy_reasons</t>
+    <t>more_than_4_children</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
+    <t>Has delivered four or more children</t>
+  </si>
+  <si>
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
-    <t>visibly_pregnant</t>
+    <t>contact</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
+    <t>last_baby_born_less_than_1_year_ago</t>
+  </si>
+  <si>
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>The woman is visibly pregnant but does not know for how long.</t>
-  </si>
-  <si>
-    <t>test_positive</t>
-  </si>
-  <si>
-    <t>You performed a pregnancy test and it is positive but the woman does not know the age of the pregnancy or LMP.</t>
+    <t>Last baby born less than one year ago</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
   </si>
   <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>missed_periods</t>
-  </si>
-  <si>
-    <t>The woman is not on any family planning methods and has missed her periods.</t>
-  </si>
-  <si>
-    <t>knows_date</t>
-  </si>
-  <si>
-    <t>I don't know</t>
-  </si>
-  <si>
-    <t>Enter date</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>couselling_on_exclusive_breastfeeding</t>
@@ -322,48 +457,42 @@
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>primary_conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>diabetes</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>the woman</t>
+  </si>
+  <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
   <si>
     <t>known_diabetes</t>
   </si>
   <si>
-    <t>None of the above</t>
-  </si>
-  <si>
     <t>Known diabetes</t>
   </si>
   <si>
@@ -373,18 +502,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>secondary_conditions</t>
-  </si>
-  <si>
-    <t>previous_difficulties</t>
-  </si>
-  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
@@ -394,123 +511,60 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>Previous difficulties in childbirth</t>
-  </si>
-  <si>
-    <t>more_than_4_children</t>
-  </si>
-  <si>
     <t>fp_methods</t>
   </si>
   <si>
-    <t>Has delivered four or more children</t>
-  </si>
-  <si>
-    <t>last_baby_born_less_than_1_year_ago</t>
-  </si>
-  <si>
-    <t>Last baby born less than one year ago</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>Combined oral contraceptives</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Progesterone only pills</t>
   </si>
   <si>
     <t>Injectibles</t>
   </si>
   <si>
+    <t>chw_name</t>
+  </si>
+  <si>
+    <t>CHW name</t>
+  </si>
+  <si>
     <t>Implants (1 rod)</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>Implants (2 rods)</t>
   </si>
   <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>Condoms</t>
   </si>
   <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
+    <t>phone</t>
   </si>
   <si>
     <t>Tubal ligation</t>
   </si>
   <si>
+    <t>CHW phone</t>
+  </si>
+  <si>
     <t>Cycle beads</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
     <t>Wants to get pregnant</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>contact_id</t>
-  </si>
-  <si>
-    <t>Contact ID</t>
-  </si>
-  <si>
     <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>in_person</t>
   </si>
   <si>
@@ -556,12 +610,6 @@
     <t>Relocated</t>
   </si>
   <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
     <t>actions_taken</t>
   </si>
   <si>
@@ -613,15 +661,15 @@
     <t>pos_neg</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>Positive</t>
   </si>
   <si>
+    <t>calculate</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -634,61 +682,13 @@
     <t>wants_to_get_pregnant</t>
   </si>
   <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>chw_name</t>
-  </si>
-  <si>
-    <t>CHW name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_age_in_years</t>
   </si>
   <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
@@ -2554,25 +2554,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2583,23 +2581,16 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2608,29 +2599,38 @@
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2792,1310 +2792,1310 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AA1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AB1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AC1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AD1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AE1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AF1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
+      <c r="AH1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26" t="s">
+      <c r="C11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="C14" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="AF29" s="32"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="26" t="s">
+      <c r="B30" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="AF29" s="33"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>224</v>
-      </c>
       <c r="C30" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
@@ -4128,7 +4128,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36"/>
       <c r="AF30" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG30" s="36"/>
       <c r="AH30" s="38"/>
@@ -4136,14 +4136,14 @@
       <c r="AJ30" s="38"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>226</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
@@ -4176,7 +4176,7 @@
       <c r="AD31" s="36"/>
       <c r="AE31" s="36"/>
       <c r="AF31" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="38"/>
@@ -4184,14 +4184,14 @@
       <c r="AJ31" s="38"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>213</v>
+      <c r="A32" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4199,9 +4199,7 @@
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="36" t="s">
-        <v>48</v>
-      </c>
+      <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
@@ -4226,7 +4224,7 @@
       <c r="AD32" s="36"/>
       <c r="AE32" s="36"/>
       <c r="AF32" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG32" s="36"/>
       <c r="AH32" s="38"/>
@@ -4234,14 +4232,14 @@
       <c r="AJ32" s="38"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
@@ -4274,7 +4272,7 @@
       <c r="AD33" s="36"/>
       <c r="AE33" s="36"/>
       <c r="AF33" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG33" s="36"/>
       <c r="AH33" s="38"/>
@@ -4283,13 +4281,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>231</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
@@ -4322,7 +4320,7 @@
       <c r="AD34" s="36"/>
       <c r="AE34" s="36"/>
       <c r="AF34" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG34" s="36"/>
       <c r="AH34" s="38"/>
@@ -4330,14 +4328,14 @@
       <c r="AJ34" s="38"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35" t="s">
-        <v>223</v>
+      <c r="A35" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>233</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -4370,7 +4368,7 @@
       <c r="AD35" s="36"/>
       <c r="AE35" s="36"/>
       <c r="AF35" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG35" s="36"/>
       <c r="AH35" s="38"/>
@@ -4378,14 +4376,14 @@
       <c r="AJ35" s="38"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>235</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -4418,7 +4416,7 @@
       <c r="AD36" s="36"/>
       <c r="AE36" s="36"/>
       <c r="AF36" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG36" s="36"/>
       <c r="AH36" s="38"/>
@@ -4426,14 +4424,14 @@
       <c r="AJ36" s="38"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>237</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -4466,7 +4464,7 @@
       <c r="AD37" s="36"/>
       <c r="AE37" s="36"/>
       <c r="AF37" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG37" s="36"/>
       <c r="AH37" s="38"/>
@@ -4474,14 +4472,14 @@
       <c r="AJ37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>239</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
@@ -4516,7 +4514,7 @@
       <c r="AD38" s="36"/>
       <c r="AE38" s="36"/>
       <c r="AF38" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG38" s="36"/>
       <c r="AH38" s="38"/>
@@ -4524,14 +4522,14 @@
       <c r="AJ38" s="38"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
@@ -4566,7 +4564,7 @@
       <c r="AD39" s="36"/>
       <c r="AE39" s="36"/>
       <c r="AF39" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG39" s="36"/>
       <c r="AH39" s="38"/>
@@ -4574,14 +4572,14 @@
       <c r="AJ39" s="38"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>223</v>
+      <c r="A40" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>244</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
@@ -4616,7 +4614,7 @@
       <c r="AD40" s="36"/>
       <c r="AE40" s="36"/>
       <c r="AF40" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG40" s="36"/>
       <c r="AH40" s="40"/>
@@ -4625,13 +4623,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>246</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
@@ -4664,7 +4662,7 @@
       <c r="AD41" s="36"/>
       <c r="AE41" s="36"/>
       <c r="AF41" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG41" s="36"/>
       <c r="AH41" s="41"/>
@@ -4673,13 +4671,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>248</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
@@ -4712,7 +4710,7 @@
       <c r="AD42" s="36"/>
       <c r="AE42" s="36"/>
       <c r="AF42" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG42" s="36"/>
       <c r="AH42" s="41"/>
@@ -4721,13 +4719,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B43" s="39" t="s">
         <v>250</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -4760,7 +4758,7 @@
       <c r="AD43" s="36"/>
       <c r="AE43" s="36"/>
       <c r="AF43" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG43" s="36"/>
       <c r="AH43" s="41"/>
@@ -4769,13 +4767,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
@@ -4808,7 +4806,7 @@
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
       <c r="AF44" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG44" s="36"/>
       <c r="AH44" s="41"/>
@@ -4816,14 +4814,14 @@
       <c r="AJ44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>254</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -4856,7 +4854,7 @@
       <c r="AD45" s="36"/>
       <c r="AE45" s="36"/>
       <c r="AF45" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG45" s="36"/>
       <c r="AH45" s="41"/>
@@ -4864,14 +4862,14 @@
       <c r="AJ45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
@@ -4904,7 +4902,7 @@
       <c r="AD46" s="36"/>
       <c r="AE46" s="36"/>
       <c r="AF46" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG46" s="36"/>
       <c r="AH46" s="41"/>
@@ -4912,14 +4910,14 @@
       <c r="AJ46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" s="35" t="s">
+      <c r="A47" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="34" t="s">
         <v>258</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -4952,7 +4950,7 @@
       <c r="AD47" s="36"/>
       <c r="AE47" s="36"/>
       <c r="AF47" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG47" s="36"/>
       <c r="AH47" s="41"/>
@@ -4960,14 +4958,14 @@
       <c r="AJ47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="35" t="s">
+      <c r="A48" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -5000,7 +4998,7 @@
       <c r="AD48" s="36"/>
       <c r="AE48" s="36"/>
       <c r="AF48" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG48" s="36"/>
       <c r="AH48" s="41"/>
@@ -5008,19 +5006,19 @@
       <c r="AJ48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
       <c r="AH49" s="42"/>
       <c r="AI49" s="42"/>
       <c r="AJ49" s="42"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>262</v>
@@ -5064,13 +5062,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>264</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D51" s="44"/>
       <c r="E51" s="45"/>
@@ -5081,7 +5079,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="45"/>
       <c r="L51" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M51" s="45"/>
       <c r="N51" s="45"/>
@@ -5147,7 +5145,7 @@
       <c r="AD52" s="45"/>
       <c r="AE52" s="45"/>
       <c r="AF52" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG52" s="45"/>
       <c r="AH52" s="46"/>
@@ -5171,7 +5169,7 @@
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
       <c r="J53" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53" s="45"/>
       <c r="L53" s="44"/>
@@ -5204,7 +5202,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B54" s="43" t="s">
         <v>264</v>
@@ -5246,13 +5244,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
@@ -5307,7 +5305,7 @@
       <c r="H56" s="44"/>
       <c r="I56" s="45"/>
       <c r="J56" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
@@ -5342,10 +5340,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -5384,13 +5382,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
@@ -5403,7 +5401,7 @@
         <v>278</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M58" s="45"/>
       <c r="N58" s="45"/>
@@ -5447,7 +5445,7 @@
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
       <c r="J59" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
@@ -5473,7 +5471,7 @@
       <c r="AD59" s="45"/>
       <c r="AE59" s="45"/>
       <c r="AF59" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG59" s="45"/>
       <c r="AH59" s="46"/>
@@ -5488,7 +5486,7 @@
         <v>283</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
@@ -5497,7 +5495,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
       <c r="J60" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60" s="44" t="s">
         <v>284</v>
@@ -5540,7 +5538,7 @@
         <v>287</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="44"/>
@@ -5549,7 +5547,7 @@
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
       <c r="J61" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61" s="44" t="s">
         <v>288</v>
@@ -5586,10 +5584,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="45"/>
@@ -5628,13 +5626,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -5689,7 +5687,7 @@
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
       <c r="J64" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="45"/>
@@ -5724,10 +5722,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="45"/>
@@ -5766,13 +5764,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>296</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
@@ -5785,7 +5783,7 @@
         <v>297</v>
       </c>
       <c r="L66" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M66" s="45"/>
       <c r="N66" s="45"/>
@@ -5807,7 +5805,7 @@
       <c r="AD66" s="45"/>
       <c r="AE66" s="45"/>
       <c r="AF66" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG66" s="45"/>
       <c r="AH66" s="46"/>
@@ -5855,7 +5853,7 @@
       <c r="AD67" s="45"/>
       <c r="AE67" s="45"/>
       <c r="AF67" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG67" s="45"/>
       <c r="AH67" s="46"/>
@@ -5903,7 +5901,7 @@
       <c r="AD68" s="45"/>
       <c r="AE68" s="45"/>
       <c r="AF68" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG68" s="45"/>
       <c r="AH68" s="46"/>
@@ -5951,7 +5949,7 @@
       <c r="AD69" s="45"/>
       <c r="AE69" s="45"/>
       <c r="AF69" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG69" s="45"/>
       <c r="AH69" s="46"/>
@@ -5999,7 +5997,7 @@
       <c r="AD70" s="45"/>
       <c r="AE70" s="45"/>
       <c r="AF70" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG70" s="45"/>
       <c r="AH70" s="47"/>
@@ -6047,7 +6045,7 @@
       <c r="AD71" s="45"/>
       <c r="AE71" s="45"/>
       <c r="AF71" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG71" s="45"/>
       <c r="AH71" s="46"/>
@@ -6095,7 +6093,7 @@
       <c r="AD72" s="45"/>
       <c r="AE72" s="45"/>
       <c r="AF72" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG72" s="45"/>
       <c r="AH72" s="46"/>
@@ -6141,7 +6139,7 @@
       <c r="AD73" s="45"/>
       <c r="AE73" s="45"/>
       <c r="AF73" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG73" s="45"/>
       <c r="AH73" s="47"/>
@@ -6150,7 +6148,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B74" s="43" t="s">
         <v>296</v>
@@ -6185,7 +6183,7 @@
       <c r="AD74" s="45"/>
       <c r="AE74" s="45"/>
       <c r="AF74" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG74" s="45"/>
       <c r="AH74" s="47"/>
@@ -6194,13 +6192,13 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B75" s="43" t="s">
         <v>317</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -6233,7 +6231,7 @@
       <c r="AD75" s="45"/>
       <c r="AE75" s="45"/>
       <c r="AF75" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG75" s="45"/>
       <c r="AH75" s="49"/>
@@ -6242,13 +6240,13 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B76" s="43" t="s">
         <v>319</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -6281,7 +6279,7 @@
       <c r="AD76" s="45"/>
       <c r="AE76" s="45"/>
       <c r="AF76" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG76" s="45"/>
       <c r="AH76" s="47"/>
@@ -6290,13 +6288,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B77" s="43" t="s">
         <v>321</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
@@ -6329,7 +6327,7 @@
       <c r="AD77" s="45"/>
       <c r="AE77" s="45"/>
       <c r="AF77" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG77" s="45"/>
       <c r="AH77" s="47"/>
@@ -6338,13 +6336,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B78" s="43" t="s">
         <v>323</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
@@ -6377,7 +6375,7 @@
       <c r="AD78" s="45"/>
       <c r="AE78" s="45"/>
       <c r="AF78" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG78" s="45"/>
       <c r="AH78" s="47"/>
@@ -6386,13 +6384,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
@@ -6405,7 +6403,7 @@
         <v>325</v>
       </c>
       <c r="L79" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M79" s="45"/>
       <c r="N79" s="45"/>
@@ -6471,7 +6469,7 @@
       <c r="AD80" s="45"/>
       <c r="AE80" s="45"/>
       <c r="AF80" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG80" s="45"/>
       <c r="AH80" s="50"/>
@@ -6495,7 +6493,7 @@
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
       <c r="J81" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81" s="44"/>
       <c r="L81" s="45"/>
@@ -6565,7 +6563,7 @@
       <c r="AD82" s="45"/>
       <c r="AE82" s="45"/>
       <c r="AF82" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG82" s="45"/>
       <c r="AH82" s="50"/>
@@ -6574,10 +6572,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="44"/>
       <c r="D83" s="45"/>
@@ -6616,7 +6614,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B84" s="43" t="s">
         <v>262</v>
@@ -6657,24 +6655,24 @@
       <c r="AJ84" s="50"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
       <c r="AH85" s="51"/>
       <c r="AI85" s="51"/>
       <c r="AJ85" s="51"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B86" s="43" t="s">
         <v>333</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="44"/>
@@ -6714,7 +6712,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>335</v>
@@ -6773,7 +6771,7 @@
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
       <c r="J88" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88" s="44"/>
       <c r="L88" s="44"/>
@@ -6810,13 +6808,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>342</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D89" s="44"/>
       <c r="E89" s="44"/>
@@ -6827,7 +6825,7 @@
       <c r="J89" s="44"/>
       <c r="K89" s="44"/>
       <c r="L89" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M89" s="44"/>
       <c r="N89" s="44"/>
@@ -6895,7 +6893,7 @@
       <c r="AD90" s="44"/>
       <c r="AE90" s="44"/>
       <c r="AF90" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG90" s="44"/>
       <c r="AH90" s="52"/>
@@ -6943,7 +6941,7 @@
       <c r="AD91" s="44"/>
       <c r="AE91" s="44"/>
       <c r="AF91" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG91" s="44"/>
       <c r="AH91" s="52"/>
@@ -6967,7 +6965,7 @@
       <c r="H92" s="44"/>
       <c r="I92" s="44"/>
       <c r="J92" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92" s="44" t="s">
         <v>345</v>
@@ -7015,7 +7013,7 @@
       <c r="H93" s="44"/>
       <c r="I93" s="44"/>
       <c r="J93" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93" s="44" t="s">
         <v>354</v>
@@ -7091,7 +7089,7 @@
       <c r="AD94" s="44"/>
       <c r="AE94" s="44"/>
       <c r="AF94" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG94" s="45"/>
       <c r="AH94" s="45"/>
@@ -7139,7 +7137,7 @@
       <c r="AD95" s="44"/>
       <c r="AE95" s="44"/>
       <c r="AF95" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG95" s="45"/>
       <c r="AH95" s="45"/>
@@ -7154,7 +7152,7 @@
         <v>362</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D96" s="44"/>
       <c r="E96" s="44"/>
@@ -7211,7 +7209,7 @@
       <c r="H97" s="44"/>
       <c r="I97" s="44"/>
       <c r="J97" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97" s="44" t="s">
         <v>348</v>
@@ -7259,7 +7257,7 @@
       <c r="H98" s="44"/>
       <c r="I98" s="44"/>
       <c r="J98" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" s="44" t="s">
         <v>367</v>
@@ -7302,7 +7300,7 @@
         <v>362</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D99" s="44"/>
       <c r="E99" s="44"/>
@@ -7340,7 +7338,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>342</v>
@@ -7382,7 +7380,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>335</v>
@@ -7424,7 +7422,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B102" s="43" t="s">
         <v>369</v>
@@ -7468,13 +7466,13 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>371</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="44"/>
@@ -7485,7 +7483,7 @@
       <c r="J103" s="44"/>
       <c r="K103" s="44"/>
       <c r="L103" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M103" s="44"/>
       <c r="N103" s="44"/>
@@ -7529,7 +7527,7 @@
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
       <c r="J104" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104" s="44"/>
       <c r="L104" s="44"/>
@@ -7566,7 +7564,7 @@
         <v>374</v>
       </c>
       <c r="C105" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D105" s="44"/>
       <c r="E105" s="44"/>
@@ -7575,7 +7573,7 @@
       <c r="H105" s="44"/>
       <c r="I105" s="44"/>
       <c r="J105" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105" s="44" t="s">
         <v>375</v>
@@ -7612,7 +7610,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B106" s="43"/>
       <c r="C106" s="44"/>
@@ -7652,13 +7650,13 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B107" s="43" t="s">
         <v>378</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D107" s="44"/>
       <c r="E107" s="44"/>
@@ -7671,7 +7669,7 @@
         <v>379</v>
       </c>
       <c r="L107" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
@@ -7693,7 +7691,7 @@
       <c r="AD107" s="44"/>
       <c r="AE107" s="44"/>
       <c r="AF107" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG107" s="44"/>
       <c r="AH107" s="52"/>
@@ -7739,7 +7737,7 @@
       <c r="AD108" s="44"/>
       <c r="AE108" s="44"/>
       <c r="AF108" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG108" s="44"/>
       <c r="AH108" s="52"/>
@@ -7785,7 +7783,7 @@
       <c r="AD109" s="44"/>
       <c r="AE109" s="44"/>
       <c r="AF109" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG109" s="44"/>
       <c r="AH109" s="52"/>
@@ -7831,7 +7829,7 @@
       <c r="AD110" s="44"/>
       <c r="AE110" s="44"/>
       <c r="AF110" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG110" s="44"/>
       <c r="AH110" s="52"/>
@@ -7840,7 +7838,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B111" s="43" t="s">
         <v>378</v>
@@ -7882,7 +7880,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B112" s="43" t="s">
         <v>369</v>
@@ -7924,7 +7922,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B113" s="43" t="s">
         <v>333</v>
@@ -7965,17 +7963,17 @@
       <c r="AJ113" s="47"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="K114" s="33"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="K114" s="32"/>
       <c r="AH114" s="51"/>
       <c r="AI114" s="51"/>
       <c r="AJ114" s="51"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B115" s="43" t="s">
         <v>386</v>
@@ -8019,13 +8017,13 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B116" s="43" t="s">
         <v>388</v>
       </c>
       <c r="C116" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D116" s="44"/>
       <c r="E116" s="44"/>
@@ -8036,7 +8034,7 @@
       <c r="J116" s="44"/>
       <c r="K116" s="44"/>
       <c r="L116" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M116" s="44"/>
       <c r="N116" s="44"/>
@@ -8080,7 +8078,7 @@
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
       <c r="J117" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117" s="44"/>
       <c r="L117" s="44"/>
@@ -8126,7 +8124,7 @@
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>
       <c r="J118" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118" s="44"/>
       <c r="L118" s="44"/>
@@ -8157,7 +8155,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B119" s="43"/>
       <c r="C119" s="44"/>
@@ -8197,13 +8195,13 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B120" s="43" t="s">
         <v>394</v>
       </c>
       <c r="C120" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D120" s="44"/>
       <c r="E120" s="44"/>
@@ -8214,7 +8212,7 @@
       <c r="J120" s="44"/>
       <c r="K120" s="44"/>
       <c r="L120" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M120" s="44"/>
       <c r="N120" s="44"/>
@@ -8258,7 +8256,7 @@
       <c r="H121" s="44"/>
       <c r="I121" s="44"/>
       <c r="J121" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121" s="44" t="s">
         <v>398</v>
@@ -8312,7 +8310,7 @@
       <c r="H122" s="44"/>
       <c r="I122" s="44"/>
       <c r="J122" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122" s="44" t="s">
         <v>405</v>
@@ -8366,7 +8364,7 @@
       <c r="H123" s="44"/>
       <c r="I123" s="44"/>
       <c r="J123" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123" s="44"/>
       <c r="L123" s="44"/>
@@ -8412,7 +8410,7 @@
       <c r="H124" s="44"/>
       <c r="I124" s="44"/>
       <c r="J124" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K124" s="44" t="s">
         <v>411</v>
@@ -8449,7 +8447,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B125" s="43"/>
       <c r="C125" s="44"/>
@@ -8489,13 +8487,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B126" s="48" t="s">
         <v>414</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D126" s="44"/>
       <c r="E126" s="44"/>
@@ -8528,7 +8526,7 @@
       <c r="AD126" s="44"/>
       <c r="AE126" s="44"/>
       <c r="AF126" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG126" s="44"/>
       <c r="AH126" s="52"/>
@@ -8537,7 +8535,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B127" s="43" t="s">
         <v>386</v>
@@ -8578,14 +8576,14 @@
       <c r="AJ127" s="51"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="33"/>
+      <c r="C128" s="32"/>
       <c r="AH128" s="53"/>
       <c r="AI128" s="53"/>
       <c r="AJ128" s="53"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="48" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B129" s="48" t="s">
         <v>416</v>
@@ -8602,7 +8600,7 @@
       <c r="J129" s="45"/>
       <c r="K129" s="45"/>
       <c r="L129" s="45" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M129" s="45"/>
       <c r="N129" s="45"/>
@@ -8668,7 +8666,7 @@
       <c r="AD130" s="45"/>
       <c r="AE130" s="45"/>
       <c r="AF130" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG130" s="45"/>
       <c r="AH130" s="54"/>
@@ -8736,7 +8734,7 @@
       <c r="H132" s="45"/>
       <c r="I132" s="45"/>
       <c r="J132" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132" s="45"/>
       <c r="L132" s="45"/>
@@ -8782,7 +8780,7 @@
       <c r="H133" s="45"/>
       <c r="I133" s="45"/>
       <c r="J133" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133" s="45"/>
       <c r="L133" s="45"/>
@@ -8828,7 +8826,7 @@
       <c r="H134" s="45"/>
       <c r="I134" s="45"/>
       <c r="J134" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134" s="45"/>
       <c r="L134" s="45"/>
@@ -8874,7 +8872,7 @@
       <c r="H135" s="45"/>
       <c r="I135" s="45"/>
       <c r="J135" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135" s="45"/>
       <c r="L135" s="45"/>
@@ -8920,7 +8918,7 @@
       <c r="H136" s="45"/>
       <c r="I136" s="45"/>
       <c r="J136" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136" s="45"/>
       <c r="L136" s="45"/>
@@ -8966,7 +8964,7 @@
       <c r="H137" s="45"/>
       <c r="I137" s="45"/>
       <c r="J137" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137" s="45"/>
       <c r="L137" s="45"/>
@@ -9012,7 +9010,7 @@
       <c r="H138" s="45"/>
       <c r="I138" s="45"/>
       <c r="J138" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138" s="45"/>
       <c r="L138" s="45"/>
@@ -9058,7 +9056,7 @@
       <c r="H139" s="45"/>
       <c r="I139" s="45"/>
       <c r="J139" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139" s="45"/>
       <c r="L139" s="45"/>
@@ -9104,7 +9102,7 @@
       <c r="H140" s="45"/>
       <c r="I140" s="45"/>
       <c r="J140" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140" s="45"/>
       <c r="L140" s="45"/>
@@ -9150,7 +9148,7 @@
       <c r="H141" s="45"/>
       <c r="I141" s="45"/>
       <c r="J141" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141" s="45"/>
       <c r="L141" s="45"/>
@@ -9196,7 +9194,7 @@
       <c r="H142" s="45"/>
       <c r="I142" s="45"/>
       <c r="J142" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142" s="45"/>
       <c r="L142" s="45"/>
@@ -9227,13 +9225,13 @@
     </row>
     <row r="143" ht="29.25" customHeight="1">
       <c r="A143" s="48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B143" s="48" t="s">
         <v>444</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -9266,7 +9264,7 @@
       <c r="AD143" s="45"/>
       <c r="AE143" s="45"/>
       <c r="AF143" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG143" s="45"/>
       <c r="AH143" s="54"/>
@@ -9314,7 +9312,7 @@
       <c r="AD144" s="45"/>
       <c r="AE144" s="45"/>
       <c r="AF144" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG144" s="45"/>
       <c r="AH144" s="49"/>
@@ -9362,7 +9360,7 @@
       <c r="AD145" s="45"/>
       <c r="AE145" s="45"/>
       <c r="AF145" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG145" s="45"/>
       <c r="AH145" s="49"/>
@@ -9410,7 +9408,7 @@
       <c r="AD146" s="45"/>
       <c r="AE146" s="45"/>
       <c r="AF146" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG146" s="45"/>
       <c r="AH146" s="54"/>
@@ -9419,7 +9417,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="48" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B147" s="48" t="s">
         <v>416</v>
@@ -9460,17 +9458,17 @@
       <c r="AJ147" s="54"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33"/>
-      <c r="K148" s="33"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="K148" s="32"/>
       <c r="AH148" s="47"/>
       <c r="AI148" s="47"/>
       <c r="AJ148" s="47"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B149" s="43" t="s">
         <v>454</v>
@@ -9514,13 +9512,13 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B150" s="43" t="s">
         <v>456</v>
       </c>
       <c r="C150" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="44"/>
@@ -9531,7 +9529,7 @@
       <c r="J150" s="45"/>
       <c r="K150" s="44"/>
       <c r="L150" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M150" s="45"/>
       <c r="N150" s="45"/>
@@ -9575,7 +9573,7 @@
       <c r="H151" s="45"/>
       <c r="I151" s="45"/>
       <c r="J151" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151" s="44"/>
       <c r="L151" s="45"/>
@@ -9643,7 +9641,7 @@
       <c r="AD152" s="45"/>
       <c r="AE152" s="45"/>
       <c r="AF152" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG152" s="45"/>
       <c r="AH152" s="46"/>
@@ -9689,7 +9687,7 @@
       <c r="AD153" s="45"/>
       <c r="AE153" s="45"/>
       <c r="AF153" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG153" s="45"/>
       <c r="AH153" s="46"/>
@@ -9698,7 +9696,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B154" s="43" t="s">
         <v>456</v>
@@ -9740,13 +9738,13 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B155" s="43" t="s">
         <v>463</v>
       </c>
       <c r="C155" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="44"/>
@@ -9757,7 +9755,7 @@
       <c r="J155" s="45"/>
       <c r="K155" s="44"/>
       <c r="L155" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M155" s="45"/>
       <c r="N155" s="45"/>
@@ -9801,7 +9799,7 @@
       <c r="H156" s="45"/>
       <c r="I156" s="45"/>
       <c r="J156" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K156" s="44"/>
       <c r="L156" s="45"/>
@@ -9869,7 +9867,7 @@
       <c r="AD157" s="45"/>
       <c r="AE157" s="45"/>
       <c r="AF157" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG157" s="45"/>
       <c r="AH157" s="47"/>
@@ -9878,7 +9876,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B158" s="43" t="s">
         <v>463</v>
@@ -9920,13 +9918,13 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B159" s="43" t="s">
         <v>468</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="44"/>
@@ -9939,7 +9937,7 @@
         <v>469</v>
       </c>
       <c r="L159" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M159" s="45"/>
       <c r="N159" s="45"/>
@@ -9983,7 +9981,7 @@
       <c r="H160" s="45"/>
       <c r="I160" s="45"/>
       <c r="J160" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K160" s="44"/>
       <c r="L160" s="45"/>
@@ -10051,7 +10049,7 @@
       <c r="AD161" s="45"/>
       <c r="AE161" s="45"/>
       <c r="AF161" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG161" s="45"/>
       <c r="AH161" s="47"/>
@@ -10060,7 +10058,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B162" s="43" t="s">
         <v>468</v>
@@ -10102,13 +10100,13 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B163" s="43" t="s">
         <v>474</v>
       </c>
       <c r="C163" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="44"/>
@@ -10141,7 +10139,7 @@
       <c r="AD163" s="45"/>
       <c r="AE163" s="45"/>
       <c r="AF163" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG163" s="45"/>
       <c r="AH163" s="47"/>
@@ -10334,7 +10332,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B168" s="43" t="s">
         <v>474</v>
@@ -10376,13 +10374,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B169" s="43" t="s">
         <v>487</v>
       </c>
       <c r="C169" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="44"/>
@@ -10393,7 +10391,7 @@
       <c r="J169" s="45"/>
       <c r="K169" s="44"/>
       <c r="L169" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M169" s="45"/>
       <c r="N169" s="45"/>
@@ -10437,7 +10435,7 @@
       <c r="H170" s="44"/>
       <c r="I170" s="44"/>
       <c r="J170" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170" s="44"/>
       <c r="L170" s="44"/>
@@ -10505,7 +10503,7 @@
       <c r="AD171" s="44"/>
       <c r="AE171" s="44"/>
       <c r="AF171" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG171" s="44"/>
       <c r="AH171" s="52"/>
@@ -10514,7 +10512,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B172" s="43" t="s">
         <v>487</v>
@@ -10556,13 +10554,13 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="43" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B173" s="43" t="s">
         <v>492</v>
       </c>
       <c r="C173" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="44"/>
@@ -10575,7 +10573,7 @@
         <v>493</v>
       </c>
       <c r="L173" s="44" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M173" s="45"/>
       <c r="N173" s="45"/>
@@ -10619,7 +10617,7 @@
       <c r="H174" s="44"/>
       <c r="I174" s="44"/>
       <c r="J174" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174" s="44"/>
       <c r="L174" s="44"/>
@@ -10687,7 +10685,7 @@
       <c r="AD175" s="44"/>
       <c r="AE175" s="44"/>
       <c r="AF175" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG175" s="44"/>
       <c r="AH175" s="52"/>
@@ -10733,7 +10731,7 @@
       <c r="AD176" s="44"/>
       <c r="AE176" s="44"/>
       <c r="AF176" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG176" s="44"/>
       <c r="AH176" s="52"/>
@@ -10742,7 +10740,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B177" s="43" t="s">
         <v>492</v>
@@ -10784,13 +10782,13 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B178" s="43" t="s">
         <v>500</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="44"/>
@@ -10823,7 +10821,7 @@
       <c r="AD178" s="44"/>
       <c r="AE178" s="44"/>
       <c r="AF178" s="44" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG178" s="44"/>
       <c r="AH178" s="57"/>
@@ -10832,7 +10830,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="43" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B179" s="43" t="s">
         <v>454</v>
@@ -10873,37 +10871,37 @@
       <c r="AJ179" s="58"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="L180" s="33"/>
-      <c r="N180" s="33"/>
-      <c r="O180" s="33"/>
-      <c r="P180" s="33"/>
-      <c r="Q180" s="33"/>
-      <c r="R180" s="33"/>
-      <c r="S180" s="33"/>
-      <c r="T180" s="33"/>
-      <c r="U180" s="33"/>
-      <c r="V180" s="33"/>
-      <c r="W180" s="33"/>
-      <c r="X180" s="33"/>
-      <c r="Y180" s="33"/>
-      <c r="AF180" s="33"/>
-      <c r="AG180" s="33"/>
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="L180" s="32"/>
+      <c r="N180" s="32"/>
+      <c r="O180" s="32"/>
+      <c r="P180" s="32"/>
+      <c r="Q180" s="32"/>
+      <c r="R180" s="32"/>
+      <c r="S180" s="32"/>
+      <c r="T180" s="32"/>
+      <c r="U180" s="32"/>
+      <c r="V180" s="32"/>
+      <c r="W180" s="32"/>
+      <c r="X180" s="32"/>
+      <c r="Y180" s="32"/>
+      <c r="AF180" s="32"/>
+      <c r="AG180" s="32"/>
       <c r="AH180" s="59"/>
       <c r="AI180" s="59"/>
       <c r="AJ180" s="59"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="60" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B181" s="60" t="s">
         <v>502</v>
       </c>
       <c r="C181" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D181" s="62"/>
       <c r="E181" s="61"/>
@@ -10936,7 +10934,7 @@
       <c r="AD181" s="62"/>
       <c r="AE181" s="62"/>
       <c r="AF181" s="61" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG181" s="61"/>
       <c r="AH181" s="63"/>
@@ -11419,7 +11417,7 @@
         <v>532</v>
       </c>
       <c r="C192" s="61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D192" s="62"/>
       <c r="E192" s="61"/>
@@ -11467,7 +11465,7 @@
         <v>534</v>
       </c>
       <c r="C193" s="61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D193" s="62"/>
       <c r="E193" s="61"/>
@@ -11515,7 +11513,7 @@
         <v>536</v>
       </c>
       <c r="C194" s="61" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D194" s="62"/>
       <c r="E194" s="61"/>
@@ -11563,7 +11561,7 @@
         <v>538</v>
       </c>
       <c r="C195" s="61" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D195" s="62"/>
       <c r="E195" s="61"/>
@@ -11611,7 +11609,7 @@
         <v>540</v>
       </c>
       <c r="C196" s="61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D196" s="62"/>
       <c r="E196" s="61"/>
@@ -11659,7 +11657,7 @@
         <v>542</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D197" s="62"/>
       <c r="E197" s="61"/>
@@ -12331,7 +12329,7 @@
         <v>572</v>
       </c>
       <c r="C211" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D211" s="62"/>
       <c r="E211" s="61"/>
@@ -12937,7 +12935,7 @@
         <v>605</v>
       </c>
       <c r="C224" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D224" s="62"/>
       <c r="E224" s="61"/>
@@ -13249,13 +13247,13 @@
     </row>
     <row r="231" ht="21.75" customHeight="1">
       <c r="A231" s="60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B231" s="60" t="s">
         <v>620</v>
       </c>
       <c r="C231" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D231" s="62"/>
       <c r="E231" s="61"/>
@@ -13295,13 +13293,13 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B232" s="60" t="s">
         <v>622</v>
       </c>
       <c r="C232" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D232" s="62"/>
       <c r="E232" s="61"/>
@@ -13341,13 +13339,13 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B233" s="60" t="s">
         <v>624</v>
       </c>
       <c r="C233" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D233" s="62"/>
       <c r="E233" s="61"/>
@@ -13387,13 +13385,13 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="60" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B234" s="60" t="s">
         <v>626</v>
       </c>
       <c r="C234" s="61" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D234" s="62"/>
       <c r="E234" s="62"/>
@@ -13404,7 +13402,7 @@
       <c r="J234" s="62"/>
       <c r="K234" s="62"/>
       <c r="L234" s="61" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="M234" s="62"/>
       <c r="N234" s="62"/>
@@ -13439,7 +13437,7 @@
         <v>628</v>
       </c>
       <c r="C235" s="62" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D235" s="62"/>
       <c r="E235" s="62"/>
@@ -13479,13 +13477,13 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B236" s="60" t="s">
         <v>630</v>
       </c>
       <c r="C236" s="62" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D236" s="62"/>
       <c r="E236" s="62"/>
@@ -13531,7 +13529,7 @@
         <v>633</v>
       </c>
       <c r="C237" s="62" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D237" s="62"/>
       <c r="E237" s="62"/>
@@ -13571,13 +13569,13 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B238" s="60" t="s">
         <v>635</v>
       </c>
       <c r="C238" s="62" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D238" s="62"/>
       <c r="E238" s="62"/>
@@ -13617,7 +13615,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="60" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B239" s="60"/>
       <c r="C239" s="61"/>
@@ -13657,7 +13655,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="60" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B240" s="60"/>
       <c r="C240" s="61"/>
@@ -13696,24 +13694,24 @@
       <c r="AJ240" s="63"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="33"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="33"/>
-      <c r="L241" s="33"/>
-      <c r="AG241" s="33"/>
+      <c r="A241" s="32"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
+      <c r="L241" s="32"/>
+      <c r="AG241" s="32"/>
       <c r="AH241" s="59"/>
       <c r="AI241" s="59"/>
       <c r="AJ241" s="59"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="69" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B242" s="69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C242" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D242" s="71"/>
       <c r="E242" s="70"/>
@@ -13724,7 +13722,7 @@
       <c r="J242" s="71"/>
       <c r="K242" s="71"/>
       <c r="L242" s="70" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="M242" s="71"/>
       <c r="N242" s="71"/>
@@ -13746,7 +13744,7 @@
       <c r="AD242" s="71"/>
       <c r="AE242" s="71"/>
       <c r="AF242" s="71" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AG242" s="70"/>
       <c r="AH242" s="72"/>
@@ -13755,13 +13753,13 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B243" s="73" t="s">
         <v>637</v>
       </c>
       <c r="C243" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D243" s="71"/>
       <c r="E243" s="70"/>
@@ -13803,13 +13801,13 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B244" s="73" t="s">
         <v>640</v>
       </c>
       <c r="C244" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D244" s="71"/>
       <c r="E244" s="70"/>
@@ -13851,13 +13849,13 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B245" s="73" t="s">
         <v>643</v>
       </c>
       <c r="C245" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D245" s="71"/>
       <c r="E245" s="70"/>
@@ -13899,13 +13897,13 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B246" s="73" t="s">
         <v>646</v>
       </c>
       <c r="C246" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D246" s="71"/>
       <c r="E246" s="70"/>
@@ -13947,13 +13945,13 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B247" s="73" t="s">
         <v>649</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D247" s="71"/>
       <c r="E247" s="70"/>
@@ -13995,13 +13993,13 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B248" s="73" t="s">
         <v>652</v>
       </c>
       <c r="C248" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D248" s="71"/>
       <c r="E248" s="70"/>
@@ -14043,13 +14041,13 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B249" s="73" t="s">
         <v>655</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D249" s="71"/>
       <c r="E249" s="70"/>
@@ -14091,13 +14089,13 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B250" s="73" t="s">
         <v>657</v>
       </c>
       <c r="C250" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D250" s="71"/>
       <c r="E250" s="70"/>
@@ -14139,13 +14137,13 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B251" s="73" t="s">
         <v>660</v>
       </c>
       <c r="C251" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D251" s="71"/>
       <c r="E251" s="70"/>
@@ -14187,13 +14185,13 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B252" s="73" t="s">
         <v>663</v>
       </c>
       <c r="C252" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D252" s="71"/>
       <c r="E252" s="70"/>
@@ -14235,13 +14233,13 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B253" s="73" t="s">
         <v>666</v>
       </c>
       <c r="C253" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D253" s="71"/>
       <c r="E253" s="70"/>
@@ -14283,13 +14281,13 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B254" s="73" t="s">
         <v>669</v>
       </c>
       <c r="C254" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D254" s="71"/>
       <c r="E254" s="70"/>
@@ -14331,13 +14329,13 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B255" s="73" t="s">
         <v>672</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D255" s="71"/>
       <c r="E255" s="70"/>
@@ -14379,13 +14377,13 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B256" s="73" t="s">
         <v>675</v>
       </c>
       <c r="C256" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D256" s="71"/>
       <c r="E256" s="70"/>
@@ -14427,13 +14425,13 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B257" s="73" t="s">
         <v>678</v>
       </c>
       <c r="C257" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D257" s="71"/>
       <c r="E257" s="70"/>
@@ -14475,13 +14473,13 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B258" s="73" t="s">
         <v>681</v>
       </c>
       <c r="C258" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D258" s="71"/>
       <c r="E258" s="70"/>
@@ -14523,13 +14521,13 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B259" s="73" t="s">
         <v>684</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D259" s="71"/>
       <c r="E259" s="70"/>
@@ -14571,13 +14569,13 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B260" s="73" t="s">
         <v>687</v>
       </c>
       <c r="C260" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D260" s="71"/>
       <c r="E260" s="70"/>
@@ -14619,13 +14617,13 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B261" s="73" t="s">
         <v>690</v>
       </c>
       <c r="C261" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D261" s="71"/>
       <c r="E261" s="70"/>
@@ -14667,13 +14665,13 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B262" s="73" t="s">
         <v>693</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D262" s="71"/>
       <c r="E262" s="70"/>
@@ -14715,13 +14713,13 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B263" s="73" t="s">
         <v>696</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D263" s="71"/>
       <c r="E263" s="70"/>
@@ -14763,13 +14761,13 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B264" s="73" t="s">
         <v>699</v>
       </c>
       <c r="C264" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D264" s="71"/>
       <c r="E264" s="70"/>
@@ -14811,13 +14809,13 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B265" s="73" t="s">
         <v>701</v>
       </c>
       <c r="C265" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D265" s="71"/>
       <c r="E265" s="70"/>
@@ -14859,13 +14857,13 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B266" s="73" t="s">
         <v>704</v>
       </c>
       <c r="C266" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D266" s="71"/>
       <c r="E266" s="70"/>
@@ -14907,13 +14905,13 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B267" s="73" t="s">
         <v>707</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D267" s="71"/>
       <c r="E267" s="70"/>
@@ -14955,13 +14953,13 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B268" s="73" t="s">
         <v>710</v>
       </c>
       <c r="C268" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D268" s="71"/>
       <c r="E268" s="70"/>
@@ -15003,13 +15001,13 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B269" s="73" t="s">
         <v>713</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D269" s="71"/>
       <c r="E269" s="70"/>
@@ -15051,13 +15049,13 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B270" s="73" t="s">
         <v>716</v>
       </c>
       <c r="C270" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D270" s="71"/>
       <c r="E270" s="70"/>
@@ -15099,13 +15097,13 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B271" s="73" t="s">
         <v>719</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D271" s="71"/>
       <c r="E271" s="70"/>
@@ -15147,13 +15145,13 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B272" s="73" t="s">
         <v>722</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D272" s="71"/>
       <c r="E272" s="70"/>
@@ -15195,13 +15193,13 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B273" s="73" t="s">
         <v>725</v>
       </c>
       <c r="C273" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D273" s="71"/>
       <c r="E273" s="70"/>
@@ -15243,13 +15241,13 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B274" s="73" t="s">
         <v>728</v>
       </c>
       <c r="C274" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D274" s="71"/>
       <c r="E274" s="70"/>
@@ -15291,13 +15289,13 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B275" s="73" t="s">
         <v>731</v>
       </c>
       <c r="C275" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D275" s="71"/>
       <c r="E275" s="70"/>
@@ -15339,13 +15337,13 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B276" s="73" t="s">
         <v>734</v>
       </c>
       <c r="C276" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D276" s="71"/>
       <c r="E276" s="70"/>
@@ -15387,13 +15385,13 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B277" s="73" t="s">
         <v>737</v>
       </c>
       <c r="C277" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D277" s="71"/>
       <c r="E277" s="70"/>
@@ -15435,13 +15433,13 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B278" s="73" t="s">
         <v>740</v>
       </c>
       <c r="C278" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D278" s="71"/>
       <c r="E278" s="70"/>
@@ -15483,13 +15481,13 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B279" s="73" t="s">
         <v>743</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D279" s="71"/>
       <c r="E279" s="70"/>
@@ -15531,13 +15529,13 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B280" s="73" t="s">
         <v>746</v>
       </c>
       <c r="C280" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D280" s="71"/>
       <c r="E280" s="70"/>
@@ -15579,13 +15577,13 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B281" s="73" t="s">
         <v>749</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D281" s="71"/>
       <c r="E281" s="70"/>
@@ -15627,13 +15625,13 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="76" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B282" s="76" t="s">
         <v>752</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D282" s="77"/>
       <c r="E282" s="72"/>
@@ -15671,13 +15669,13 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B283" s="73" t="s">
         <v>753</v>
       </c>
       <c r="C283" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D283" s="71"/>
       <c r="E283" s="70"/>
@@ -15719,13 +15717,13 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B284" s="73" t="s">
         <v>756</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D284" s="71"/>
       <c r="E284" s="70"/>
@@ -15760,20 +15758,20 @@
       <c r="AF284" s="70"/>
       <c r="AG284" s="70"/>
       <c r="AH284" s="72" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="AI284" s="72"/>
       <c r="AJ284" s="72"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B285" s="73" t="s">
         <v>758</v>
       </c>
       <c r="C285" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D285" s="71"/>
       <c r="E285" s="70"/>
@@ -15815,13 +15813,13 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B286" s="73" t="s">
         <v>761</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D286" s="71"/>
       <c r="E286" s="70"/>
@@ -15856,20 +15854,20 @@
       <c r="AF286" s="70"/>
       <c r="AG286" s="70"/>
       <c r="AH286" s="72" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="AI286" s="72"/>
       <c r="AJ286" s="72"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B287" s="73" t="s">
         <v>763</v>
       </c>
       <c r="C287" s="70" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D287" s="71"/>
       <c r="E287" s="70"/>
@@ -15911,7 +15909,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="76" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B288" s="76" t="s">
         <v>752</v>
@@ -15953,10 +15951,10 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="76" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B289" s="76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C289" s="72"/>
       <c r="D289" s="77"/>
@@ -16022,55 +16020,55 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -16093,13 +16091,13 @@
       <c r="V2" s="18"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="18"/>
@@ -16123,9 +16121,9 @@
       <c r="V3" s="18"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -16147,14 +16145,14 @@
       <c r="V4" s="18"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>54</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -16177,13 +16175,13 @@
       <c r="V5" s="18"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="18"/>
@@ -16207,14 +16205,14 @@
       <c r="V6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>64</v>
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -16237,14 +16235,14 @@
       <c r="V7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>68</v>
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -16267,9 +16265,9 @@
       <c r="V8" s="18"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -16291,14 +16289,14 @@
       <c r="V9" s="18"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>73</v>
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -16321,14 +16319,14 @@
       <c r="V10" s="18"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>78</v>
+      <c r="A11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -16375,14 +16373,14 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>91</v>
+      <c r="A13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -16405,14 +16403,14 @@
       <c r="V13" s="18"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>93</v>
+      <c r="A14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -16435,14 +16433,14 @@
       <c r="V14" s="18"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
+      <c r="A15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -16489,14 +16487,14 @@
       <c r="V16" s="18"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>98</v>
+      <c r="C17" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -16519,14 +16517,14 @@
       <c r="V17" s="18"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>99</v>
+      <c r="A18" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -16549,9 +16547,9 @@
       <c r="V18" s="18"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -16573,14 +16571,14 @@
       <c r="V19" s="18"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>102</v>
+      <c r="A20" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -16603,14 +16601,14 @@
       <c r="V20" s="18"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>102</v>
+      <c r="A21" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -16633,14 +16631,14 @@
       <c r="V21" s="18"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>102</v>
+      <c r="A22" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -16663,14 +16661,14 @@
       <c r="V22" s="18"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -16693,13 +16691,13 @@
       <c r="V23" s="18"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="18"/>
@@ -16745,13 +16743,13 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D26" s="18"/>
@@ -16775,14 +16773,14 @@
       <c r="V26" s="18"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>129</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -16805,14 +16803,14 @@
       <c r="V27" s="18"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>131</v>
+      <c r="A28" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -16835,14 +16833,14 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>121</v>
+      <c r="A29" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -16865,14 +16863,14 @@
       <c r="V29" s="18"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="20" t="s">
-        <v>121</v>
+      <c r="A30" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -16895,14 +16893,14 @@
       <c r="V30" s="18"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>121</v>
+      <c r="A31" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -16925,14 +16923,14 @@
       <c r="V31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -16955,13 +16953,13 @@
       <c r="V32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>115</v>
       </c>
       <c r="D33" s="18"/>
@@ -16985,9 +16983,9 @@
       <c r="V33" s="18"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="20"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -17009,25 +17007,25 @@
       <c r="V34" s="18"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>149</v>
+      <c r="A35" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>152</v>
+      <c r="A36" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
@@ -17119,22 +17117,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -17158,44 +17156,44 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
         <f>NOW()</f>
-        <v>43773.51584</v>
+        <v>43773.55118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17221,56 +17219,56 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -17295,7 +17293,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>50</v>
@@ -17351,13 +17349,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -17382,13 +17380,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -17413,13 +17411,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -17444,13 +17442,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -17475,13 +17473,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -17531,13 +17529,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -17562,13 +17560,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -17593,13 +17591,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -17624,13 +17622,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -17655,13 +17653,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -17686,13 +17684,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -17742,13 +17740,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -17773,13 +17771,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -17804,13 +17802,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -17835,13 +17833,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -17866,13 +17864,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -17897,13 +17895,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -17953,13 +17951,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -17984,13 +17982,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -18015,13 +18013,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -18046,13 +18044,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -18077,13 +18075,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -18133,13 +18131,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -18164,10 +18162,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>51</v>
@@ -18220,121 +18218,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -18345,26 +18343,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -18374,290 +18372,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="A48" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="A49" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>184</v>
+      <c r="A58" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>186</v>
+      <c r="A59" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>188</v>
+      <c r="A60" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>118</v>
+      <c r="A61" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>191</v>
+      <c r="A63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>193</v>
+      <c r="A64" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>195</v>
+      <c r="A65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>197</v>
+      <c r="A66" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="29" t="s">
+      <c r="A67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>157</v>
+        <v>221</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy.xlsx
+++ b/config/default/forms/app/pregnancy.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Contact ID</t>
   </si>
   <si>
-    <t xml:space="preserve">select-contact person</t>
+    <t xml:space="preserve">select-contact type-person</t>
   </si>
   <si>
     <t xml:space="preserve">parent</t>
@@ -2960,7 +2960,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L161" activeCellId="0" sqref="L161"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2980,7 +2980,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="73.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="0" width="29.86"/>
@@ -17298,7 +17298,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="C2" s="57" t="n">
         <f aca="true">NOW()</f>
-        <v>43963.6420593429</v>
+        <v>43965.5587619736</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>678</v>

--- a/config/default/forms/app/pregnancy.xlsx
+++ b/config/default/forms/app/pregnancy.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">select-contact</t>
+    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">contact_id</t>
@@ -2960,7 +2960,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="C2" s="57" t="n">
         <f aca="true">NOW()</f>
-        <v>43965.5587619736</v>
+        <v>43965.5754322576</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>678</v>

--- a/config/default/forms/app/pregnancy.xlsx
+++ b/config/default/forms/app/pregnancy.xlsx
@@ -2960,7 +2960,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="C2" s="57" t="n">
         <f aca="true">NOW()</f>
-        <v>43965.5754322576</v>
+        <v>43966.3899077575</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>678</v>

--- a/config/default/forms/app/pregnancy.xlsx
+++ b/config/default/forms/app/pregnancy.xlsx
@@ -340,7 +340,7 @@
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(floor(decimal-date-time(today())) + 3)</t>
+    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -397,8 +397,8 @@
     <t xml:space="preserve">Please enter the start date of the LMP. </t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt;= date-time(floor(decimal-date-time(today())) - (1 * 30)) and
-. &gt;= date-time(floor(decimal-date-time(today())) - (9 * 30))</t>
+    <t xml:space="preserve">. &lt;= date-time(decimal-date-time(today()) - (1 * 30)) and
+. &gt;= date-time(decimal-date-time(today()) - (9 * 30))</t>
   </si>
   <si>
     <t xml:space="preserve">Start date cannot be less than 1 month ago. Start date cannot be more than 9 months in the future. </t>
@@ -464,8 +464,8 @@
     <t xml:space="preserve">Please enter the expected date of delivery.</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= date-time(floor(decimal-date-time(today()))) and
-. &lt;= date-time(floor(decimal-date-time(today())) + (9 * 30))</t>
+    <t xml:space="preserve">. &gt;= today() and
+. &lt;= date-time(decimal-date-time(today()) + (9 * 30))</t>
   </si>
   <si>
     <t xml:space="preserve">Date cannot be in the past. Date cannot be more than 9 months in the future. </t>
@@ -541,8 +541,8 @@
   <si>
     <t xml:space="preserve">format-date-time(
 if(selected(../register_method/lmp_method, 'method_lmp'), ../method_lmp/u_lmp_date,
-if(selected(../method_approx/lmp_approx, 'approx_weeks'), date-time(floor(decimal-date-time(today())) - (../method_approx/lmp_approx_weeks * 7)), 
-if(selected(../method_approx/lmp_approx, 'approx_months'), date-time(floor(decimal-date-time(today())) - round(../method_approx/lmp_approx_months * 30.5)),
+if(selected(../method_approx/lmp_approx, 'approx_weeks'), date-time(decimal-date-time(today()) - (../method_approx/lmp_approx_weeks * 7)), 
+if(selected(../method_approx/lmp_approx, 'approx_months'), date-time(decimal-date-time(today()) - round(../method_approx/lmp_approx_months * 30.5)),
 if(selected(../register_method/lmp_method, 'method_edd'), date-time(decimal-date-time(../method_edd/u_edd) - 280), '')
 ))), "%Y-%m-%d")</t>
   </si>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">selected(../visited_date_ask_single, 'yes')</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal-date-time(.) &lt;= floor(decimal-date-time(today())) and decimal-date-time(.) &gt;= (decimal-date-time(${g_lmp_date_8601}))</t>
+    <t xml:space="preserve">. &lt;= today() and . &gt;= ${g_lmp_date_8601}</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the correct date. Date must be within this pregnancy and cannot be in the future.</t>
@@ -722,8 +722,8 @@
     <t xml:space="preserve">selected(../appointment_date_known, 'yes')</t>
   </si>
   <si>
-    <t xml:space="preserve">(decimal-date-time(.) &gt;= floor(decimal-date-time(today()))) and
-(decimal-date-time(.) &lt;= floor(decimal-date-time(today() + 30)))</t>
+    <t xml:space="preserve">(. &gt;= today()) and
+(decimal-date-time(.) &lt;= decimal-date-time(today()) + 30)</t>
   </si>
   <si>
     <t xml:space="preserve">Date cannot be in the past. Date cannot be more than one month from today.</t>
@@ -1512,14 +1512,14 @@
     <t>next_visit_weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">round((if((decimal-date-time(${lmp_date_8601}) + 12*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 12*7,
-if((decimal-date-time(${lmp_date_8601}) + 20*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 20*7,
-if((decimal-date-time(${lmp_date_8601}) + 26*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 26*7,
-if((decimal-date-time(${lmp_date_8601}) + 30*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 30*7,
-if((decimal-date-time(${lmp_date_8601}) + 34*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 34*7,
-if((decimal-date-time(${lmp_date_8601}) + 36*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 36*7,
-if((decimal-date-time(${lmp_date_8601}) + 38*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 38*7,
-if((decimal-date-time(${lmp_date_8601}) + 40*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 40*7, 0
+    <t xml:space="preserve">round((if((decimal-date-time(${lmp_date_8601}) + 12*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 12*7,
+if((decimal-date-time(${lmp_date_8601}) + 20*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 20*7,
+if((decimal-date-time(${lmp_date_8601}) + 26*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 26*7,
+if((decimal-date-time(${lmp_date_8601}) + 30*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 30*7,
+if((decimal-date-time(${lmp_date_8601}) + 34*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 34*7,
+if((decimal-date-time(${lmp_date_8601}) + 36*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 36*7,
+if((decimal-date-time(${lmp_date_8601}) + 38*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 38*7,
+if((decimal-date-time(${lmp_date_8601}) + 40*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 40*7, 0
 )))))))) - decimal-date-time(today())) div 7, 0)</t>
   </si>
   <si>
@@ -16384,7 +16384,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0037001A-00D6-42BB-AFB4-007800390053}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E70071-008C-4F94-BEEB-006800D0005C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="C2" s="48">
         <f ca="1">NOW()</f>
-        <v>44792.670763888891</v>
+        <v>44830.488055555557</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>678</v>
